--- a/results.xlsx
+++ b/results.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cezar\Desktop\Disertatie\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876CC0BF-FBD5-42F7-B74B-50CE460A4E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Models" sheetId="1" r:id="rId1"/>
+    <sheet name="Observations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,115 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Latent Space</t>
+  </si>
+  <si>
+    <t>SSIM</t>
+  </si>
+  <si>
+    <t>MS-SSIM</t>
+  </si>
+  <si>
+    <t>PSNR (db)</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>bpp</t>
+  </si>
+  <si>
+    <t>Model File</t>
+  </si>
+  <si>
+    <t>End to End Optimization</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Starting lr: 1e-4, ReduceLROnPlateau(0.1)</t>
+  </si>
+  <si>
+    <t>end-to-end-64-int_25.h5</t>
+  </si>
+  <si>
+    <t>end-to-end-64-int_30.h5</t>
+  </si>
+  <si>
+    <t>end-to-end-64-int_35.h5</t>
+  </si>
+  <si>
+    <t>Starting lr: 1e-4, ReduceLROnPlateau(0.1); Changed lambda from 1 to 0.1 at epoch 30</t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>end-to-end-64-int_40.h5</t>
+  </si>
+  <si>
+    <t>End to End Optimization resized</t>
+  </si>
+  <si>
+    <t>end-to-end-16-resized_50.h5</t>
+  </si>
+  <si>
+    <t>Starting lr: 1e-4, ReduceLROnPlateau(0.1); The images are downsampled to 256x256 instead of being cropped</t>
+  </si>
+  <si>
+    <t>End to End Optimization not processed</t>
+  </si>
+  <si>
+    <t>end-to-end-64-not-processed_5.h5</t>
+  </si>
+  <si>
+    <t>end-to-end-64-not-processed_45.h5</t>
+  </si>
+  <si>
+    <t>end-to-end-64-not-processed_75.h5</t>
+  </si>
+  <si>
+    <t>Starting lr: 1e-4, ReduceLROnPlateau(0.1); The images are fed as they are, in batches of 1</t>
+  </si>
+  <si>
+    <t>Same as above; Changed lambda from 0.1 to 1 at epoch 45</t>
+  </si>
+  <si>
+    <t>End to End Optimization Normal Distribution</t>
+  </si>
+  <si>
+    <t>end-to-end-64-normal_5.h5</t>
+  </si>
+  <si>
+    <t>end-to-end-64-normal_45.h5</t>
+  </si>
+  <si>
+    <t>end-to-end-64-normal_60.h5</t>
+  </si>
+  <si>
+    <t>end-to-end-256-normal_55.h5</t>
+  </si>
+  <si>
+    <t>end-to-end-256-normal_30.h5</t>
+  </si>
+  <si>
+    <t>end-to-end-256-normal_60.h5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +143,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,12 +189,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +630,932 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23">
+        <v>64</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0.8639</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="F2" s="23">
+        <v>33.388800000000003</v>
+      </c>
+      <c r="G2" s="23">
+        <v>1.3676999999999999</v>
+      </c>
+      <c r="H2" s="23">
+        <v>25</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>64</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="F3" s="26">
+        <v>33.434600000000003</v>
+      </c>
+      <c r="G3" s="26">
+        <v>1.3782000000000001</v>
+      </c>
+      <c r="H3" s="26">
+        <v>30</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>64</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0.8659</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="F4" s="26">
+        <v>33.486199999999997</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1.3697999999999999</v>
+      </c>
+      <c r="H4" s="26">
+        <v>35</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="29">
+        <v>64</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="F5" s="29">
+        <v>33.500999999999998</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1.373</v>
+      </c>
+      <c r="H5" s="29">
+        <v>40</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20">
+        <v>16</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.72189999999999999</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.9335</v>
+      </c>
+      <c r="F6" s="20">
+        <v>30.424299999999999</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.36380000000000001</v>
+      </c>
+      <c r="H6" s="20">
+        <v>50</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>64</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.8629</v>
+      </c>
+      <c r="F7" s="11">
+        <v>26.440300000000001</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1.3652</v>
+      </c>
+      <c r="H7" s="11">
+        <v>5</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>64</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="F8" s="14">
+        <v>29.99</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1.3568</v>
+      </c>
+      <c r="H8" s="14">
+        <v>45</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17">
+        <v>64</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.72609999999999997</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="F9" s="17">
+        <v>30.0319</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1.3628</v>
+      </c>
+      <c r="H9" s="17">
+        <v>75</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="F10" s="2">
+        <v>32.14</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.2946</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>64</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="F11" s="5">
+        <v>34.606200000000001</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1.6273</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>64</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>34.392499999999998</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1.2427999999999999</v>
+      </c>
+      <c r="H12" s="5">
+        <v>60</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="F13" s="5">
+        <v>34.356999999999999</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1.1724000000000001</v>
+      </c>
+      <c r="H13" s="5">
+        <v>75</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="5">
+        <v>64</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.8841</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="F14" s="5">
+        <v>34.352800000000002</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1.1688000000000001</v>
+      </c>
+      <c r="H14" s="5">
+        <v>85</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="8">
+        <v>64</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.88339999999999996</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="F15" s="8">
+        <v>34.3142</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1.1515</v>
+      </c>
+      <c r="H15" s="8">
+        <v>100</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="32">
+        <v>32</v>
+      </c>
+      <c r="C16" s="32">
+        <v>256</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0.996</v>
+      </c>
+      <c r="F16" s="32">
+        <v>41.483600000000003</v>
+      </c>
+      <c r="G16" s="32">
+        <v>6.8247</v>
+      </c>
+      <c r="H16" s="32">
+        <v>30</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="35">
+        <v>4</v>
+      </c>
+      <c r="C17" s="35">
+        <v>256</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="F17" s="35">
+        <v>42.790500000000002</v>
+      </c>
+      <c r="G17" s="35">
+        <v>5.9909999999999997</v>
+      </c>
+      <c r="H17" s="35">
+        <v>55</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="35">
+        <v>2</v>
+      </c>
+      <c r="C18" s="35">
+        <v>256</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="F18" s="35">
+        <v>42.482700000000001</v>
+      </c>
+      <c r="G18" s="35">
+        <v>5.5124000000000004</v>
+      </c>
+      <c r="H18" s="35">
+        <v>60</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="35">
+        <v>2</v>
+      </c>
+      <c r="C19" s="35">
+        <v>256</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="F19" s="35">
+        <v>42.452100000000002</v>
+      </c>
+      <c r="G19" s="35">
+        <v>5.3292999999999999</v>
+      </c>
+      <c r="H19" s="35">
+        <v>65</v>
+      </c>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="35">
+        <v>2</v>
+      </c>
+      <c r="C20" s="35">
+        <v>256</v>
+      </c>
+      <c r="D20" s="35">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="F20" s="35">
+        <v>42.613300000000002</v>
+      </c>
+      <c r="G20" s="35">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="H20" s="35">
+        <v>75</v>
+      </c>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="35">
+        <v>256</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="E21" s="35">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="F21" s="35">
+        <v>42.770600000000002</v>
+      </c>
+      <c r="G21" s="35">
+        <v>5.2004000000000001</v>
+      </c>
+      <c r="H21" s="35">
+        <v>80</v>
+      </c>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="35">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35">
+        <v>256</v>
+      </c>
+      <c r="D22" s="35">
+        <v>0.98040000000000005</v>
+      </c>
+      <c r="E22" s="35">
+        <v>0.995</v>
+      </c>
+      <c r="F22" s="35">
+        <v>42.635800000000003</v>
+      </c>
+      <c r="G22" s="35">
+        <v>4.99</v>
+      </c>
+      <c r="H22" s="35">
+        <v>90</v>
+      </c>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="35">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35">
+        <v>256</v>
+      </c>
+      <c r="D23" s="35">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0.995</v>
+      </c>
+      <c r="F23" s="35">
+        <v>42.612000000000002</v>
+      </c>
+      <c r="G23" s="35">
+        <v>4.9776999999999996</v>
+      </c>
+      <c r="H23" s="35">
+        <v>95</v>
+      </c>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="35">
+        <v>256</v>
+      </c>
+      <c r="D24" s="35">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="F24" s="35">
+        <v>42.235900000000001</v>
+      </c>
+      <c r="G24" s="35">
+        <v>4.6597</v>
+      </c>
+      <c r="H24" s="35">
+        <v>110</v>
+      </c>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="35">
+        <v>256</v>
+      </c>
+      <c r="D25" s="35">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="E25" s="35">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="F25" s="35">
+        <v>42.036499999999997</v>
+      </c>
+      <c r="G25" s="35">
+        <v>4.4284999999999997</v>
+      </c>
+      <c r="H25" s="35">
+        <v>120</v>
+      </c>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="35">
+        <v>256</v>
+      </c>
+      <c r="D26" s="35">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="E26" s="35">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="F26" s="35">
+        <v>41.554099999999998</v>
+      </c>
+      <c r="G26" s="35">
+        <v>4.0255999999999998</v>
+      </c>
+      <c r="H26" s="35">
+        <v>150</v>
+      </c>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="35">
+        <v>256</v>
+      </c>
+      <c r="D27" s="35">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="E27" s="35">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="F27" s="35">
+        <v>41.5276</v>
+      </c>
+      <c r="G27" s="35">
+        <v>4.0007000000000001</v>
+      </c>
+      <c r="H27" s="35">
+        <v>170</v>
+      </c>
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="38">
+        <v>256</v>
+      </c>
+      <c r="D28" s="38">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="E28" s="38">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="F28" s="38">
+        <v>41.192399999999999</v>
+      </c>
+      <c r="G28" s="38">
+        <v>3.9074</v>
+      </c>
+      <c r="H28" s="38">
+        <v>200</v>
+      </c>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>64</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="F29" s="8">
+        <v>34.796300000000002</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1.6471</v>
+      </c>
+      <c r="H29" s="8">
+        <v>125</v>
+      </c>
+      <c r="I29" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019E1E29-E83D-47BB-8AFB-CE564CCFFD2F}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="167.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cezar\Desktop\Disertatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876CC0BF-FBD5-42F7-B74B-50CE460A4E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE887F-46FB-4A31-A338-6E3968E0FD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>Model</t>
   </si>
@@ -128,13 +128,19 @@
   </si>
   <si>
     <t>end-to-end-256-normal_60.h5</t>
+  </si>
+  <si>
+    <t>End To End V7</t>
+  </si>
+  <si>
+    <t>end_to_end_v7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +148,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +193,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -310,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -351,6 +370,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,6 +1479,35 @@
         <v>125</v>
       </c>
       <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="41">
+        <v>1</v>
+      </c>
+      <c r="C30" s="41">
+        <v>128</v>
+      </c>
+      <c r="D30" s="41">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="E30" s="41">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F30" s="41">
+        <v>37.730699999999999</v>
+      </c>
+      <c r="G30" s="41">
+        <v>1.1780999999999999</v>
+      </c>
+      <c r="H30" s="41">
+        <v>100</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cezar\Desktop\Disertatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE887F-46FB-4A31-A338-6E3968E0FD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A04A5-3B0A-4443-A246-C2EFFCC5A967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>Model</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>end_to_end_v7</t>
+  </si>
+  <si>
+    <t>End to End V10</t>
+  </si>
+  <si>
+    <t>end_to_end_v10</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +205,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -329,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -373,6 +385,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="G7" sqref="C7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,6 +1522,35 @@
       </c>
       <c r="I30" s="42" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="44">
+        <v>1</v>
+      </c>
+      <c r="C31" s="44">
+        <v>64</v>
+      </c>
+      <c r="D31" s="44">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="E31" s="44">
+        <v>0.98040000000000005</v>
+      </c>
+      <c r="F31" s="44">
+        <v>33.946899999999999</v>
+      </c>
+      <c r="G31" s="44">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="H31" s="44">
+        <v>30</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
